--- a/output/fit_clients/fit_round_176.xlsx
+++ b/output/fit_clients/fit_round_176.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1995055144.192222</v>
+        <v>2501815503.736682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07232871296920132</v>
+        <v>0.1137261555870289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03598194135918836</v>
+        <v>0.03238016592956307</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>997527567.081709</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2642108116.201246</v>
+        <v>2436328134.150953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.162970702876956</v>
+        <v>0.1198939139802326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0361037481620378</v>
+        <v>0.03213461772312613</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1321054197.572696</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4495388325.379612</v>
+        <v>3663675569.299403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1052975514640424</v>
+        <v>0.1467722958374477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02648928368457851</v>
+        <v>0.03736412842862636</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2247694211.938723</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4260726115.730861</v>
+        <v>2616276745.711978</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09889725722330023</v>
+        <v>0.1081277926590077</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03608252721945394</v>
+        <v>0.03414502802002441</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2130363044.25775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2494338227.388824</v>
+        <v>2167736437.894454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09061405281607791</v>
+        <v>0.09890363465368657</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05266023720427708</v>
+        <v>0.04492260934286247</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1247169089.751052</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2237661318.979927</v>
+        <v>2630433047.118147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07968141887589184</v>
+        <v>0.09258028844869351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03750665165376989</v>
+        <v>0.03171719699585208</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1118830697.724737</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3045531892.858542</v>
+        <v>3878654585.49002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1868054443282652</v>
+        <v>0.1639986651359756</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02475425306514619</v>
+        <v>0.02198033579943834</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1522766008.57515</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1739755013.487149</v>
+        <v>2307120134.756961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1583637681696172</v>
+        <v>0.1682527755018209</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0270996923550873</v>
+        <v>0.03180827015967063</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>869877569.4397849</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5463355203.306716</v>
+        <v>3953727348.928436</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2095024652699727</v>
+        <v>0.2112019778923469</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04581935912621719</v>
+        <v>0.04267565616533021</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>74</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2731677736.815287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3447123912.515241</v>
+        <v>3033109814.324785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153003661527583</v>
+        <v>0.1178039663626191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04963729450030632</v>
+        <v>0.03026500902701849</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1723561930.327197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2921239868.819017</v>
+        <v>3274759949.286911</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574720630106335</v>
+        <v>0.1763101159115361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03618256447421374</v>
+        <v>0.0417227715519156</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>62</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1460619945.195951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4022620053.412595</v>
+        <v>4081302773.161171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09869196507756899</v>
+        <v>0.06872924151044701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03047993434107285</v>
+        <v>0.0218786384375215</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>59</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2011310080.454153</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3111717478.221296</v>
+        <v>2492759759.971309</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1352930085902158</v>
+        <v>0.1702102872318041</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03262942100419872</v>
+        <v>0.0350332441564893</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1555858765.431327</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1488171327.449288</v>
+        <v>1138942263.518589</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09536835868228748</v>
+        <v>0.06659203594389401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04709032119940075</v>
+        <v>0.04306671133065872</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>744085746.514235</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2426071292.690572</v>
+        <v>2532495688.683464</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07721020123950198</v>
+        <v>0.07300525288525615</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04160629072218705</v>
+        <v>0.03469018067942841</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1213035683.740168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5073796342.897567</v>
+        <v>3957745973.828788</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1617711281978418</v>
+        <v>0.1687299276744953</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04305589554326195</v>
+        <v>0.04492113737883592</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2536898152.898054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3104536422.271095</v>
+        <v>3163438761.945965</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1817859741761095</v>
+        <v>0.1245522331172153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02528899941793648</v>
+        <v>0.02752514759368639</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>58</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1552268233.851392</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>883674594.2557886</v>
+        <v>1293641888.631554</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1728488461267057</v>
+        <v>0.1725066715503439</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02455143652919796</v>
+        <v>0.02375577968692046</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>441837298.0544539</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2666277884.296416</v>
+        <v>2295360885.198133</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1095880470418175</v>
+        <v>0.1438888336010226</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02483246344975186</v>
+        <v>0.02963054695543483</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1333138897.515427</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1648716487.728884</v>
+        <v>2106273175.863847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09365079212556721</v>
+        <v>0.09900230314213877</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04155243131122775</v>
+        <v>0.03699688051089883</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>824358313.3914226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3645515666.992562</v>
+        <v>3520851732.227203</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09973749265034222</v>
+        <v>0.1018194030286223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0487158182995325</v>
+        <v>0.04409230770333669</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1822757856.346587</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306119977.205534</v>
+        <v>950920237.5589836</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1281402692550224</v>
+        <v>0.1587320077281514</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03803232740470348</v>
+        <v>0.04241299251432587</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>653060007.1775873</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2800084313.7761</v>
+        <v>3964775826.326739</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1163358476159153</v>
+        <v>0.1145271253409303</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02913939286540337</v>
+        <v>0.0313325683494251</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1400042205.549675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954155176.7556171</v>
+        <v>1417312199.832301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07439806289998073</v>
+        <v>0.07854198986315661</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02470434210182406</v>
+        <v>0.01983084019556493</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>477077662.8887559</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1382982139.952188</v>
+        <v>1074662876.550935</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08257105909401032</v>
+        <v>0.09493103524032122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03832592925839496</v>
+        <v>0.03411709325873158</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>691491135.7417725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4357913282.701793</v>
+        <v>3144802569.012457</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1397019017488043</v>
+        <v>0.1202230652650949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02224603888920775</v>
+        <v>0.02241617973098704</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2178956633.69672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3018119632.393769</v>
+        <v>3185244790.825581</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1298408670217898</v>
+        <v>0.1191829914168247</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03535464103500189</v>
+        <v>0.0483811187244991</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1509059828.954817</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5404593047.27668</v>
+        <v>5191289353.128622</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1292529812709287</v>
+        <v>0.150573654958316</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04634717029361768</v>
+        <v>0.03354522179129952</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>78</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2702296443.136738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1773557295.729598</v>
+        <v>2250547235.274079</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1043950404954734</v>
+        <v>0.09122297252008674</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03596826002096003</v>
+        <v>0.02978367096914022</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>886778659.5084609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>928623830.0165379</v>
+        <v>1115270909.335958</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08562236539981846</v>
+        <v>0.09810790355051467</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03985773021517228</v>
+        <v>0.03284619971112029</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>464311930.3239202</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1319513188.792537</v>
+        <v>1253477524.631695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08094588909715178</v>
+        <v>0.07345751765776744</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02886264224787984</v>
+        <v>0.02571080181439555</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>659756625.350287</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2819835556.610411</v>
+        <v>1892803080.13669</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1406700541027499</v>
+        <v>0.1857382240724704</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0533536311027584</v>
+        <v>0.05704863993131908</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1409917789.23524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1030755235.483372</v>
+        <v>1272687740.951877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08418318890900298</v>
+        <v>0.08384264393945255</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02211532520482241</v>
+        <v>0.01938099808229725</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>515377650.5114425</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008063086.744874</v>
+        <v>832363624.3533157</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09593954003127135</v>
+        <v>0.07350615564943631</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03420961091935026</v>
+        <v>0.0286622113940372</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>504031560.1597663</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2789617930.613067</v>
+        <v>3025630854.278687</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114329467634729</v>
+        <v>0.1296745847837687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02309353467992234</v>
+        <v>0.02046043191871353</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1394808964.035574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2061729047.613778</v>
+        <v>2208647041.903614</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037201383095435</v>
+        <v>0.08974637048668183</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03418158684149799</v>
+        <v>0.02563235751388128</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>49</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1030864559.581156</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1769047554.518176</v>
+        <v>1655652883.128839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07457933864841862</v>
+        <v>0.07955732576413968</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03872585954983646</v>
+        <v>0.03961295946231094</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>884523788.4826034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1718976826.529633</v>
+        <v>1431493098.574249</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1597236669232522</v>
+        <v>0.1201288299024967</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03221346990962767</v>
+        <v>0.02261753074554786</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>859488450.4373779</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1456049659.150592</v>
+        <v>1716920275.223354</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1294131049757476</v>
+        <v>0.1252147681537277</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04838227096635692</v>
+        <v>0.0457893402758812</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>728024806.726805</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2382553147.090051</v>
+        <v>2213334127.265746</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1346398005743047</v>
+        <v>0.1623802105315551</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04137806270601736</v>
+        <v>0.04520744210639782</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1191276610.292903</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3777414774.382106</v>
+        <v>4141398904.081619</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1143459288704383</v>
+        <v>0.1146013599121635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04118430154185031</v>
+        <v>0.04140384005912465</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1888707401.112653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2100669435.092593</v>
+        <v>2587847790.864381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1303577614984419</v>
+        <v>0.1543444113420437</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203938577057083</v>
+        <v>0.01732007079674167</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>61</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1050334806.34876</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1938651700.568148</v>
+        <v>2078977708.845565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08293957655996859</v>
+        <v>0.09067197932645292</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03149250228959927</v>
+        <v>0.03333697835099152</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>969325944.3556693</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1735231668.272329</v>
+        <v>1749053818.090981</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1788394632483171</v>
+        <v>0.1857834851412655</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04380488619743456</v>
+        <v>0.04438574794017977</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>867615798.2819593</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4901220786.081609</v>
+        <v>4389076885.216694</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1201379775826038</v>
+        <v>0.1584687771895309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05814507513088573</v>
+        <v>0.05939898334030721</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>63</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2450610414.155266</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3378820527.600797</v>
+        <v>3304328112.163656</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1306577105557045</v>
+        <v>0.1541901152929782</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05443355920419027</v>
+        <v>0.05483023013861278</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1689410227.699459</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3324969091.501541</v>
+        <v>4129963458.540861</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1048798232720352</v>
+        <v>0.07033199199123655</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03471854026104269</v>
+        <v>0.03842077797344566</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>58</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1662484619.301955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1780752703.719972</v>
+        <v>1831107220.04786</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1834364276386601</v>
+        <v>0.1536513547714734</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04116540195755448</v>
+        <v>0.03611093395241887</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>890376340.1934868</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3635508741.675272</v>
+        <v>4172604469.69443</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1386644412235017</v>
+        <v>0.1349341195322582</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03575240376145199</v>
+        <v>0.04373041835074003</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>60</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1817754385.429217</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>957123710.7036763</v>
+        <v>1465025068.620234</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213472104474359</v>
+        <v>0.1728962046966705</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04163432644303489</v>
+        <v>0.04953066049077055</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>478561946.2250078</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4404294383.710384</v>
+        <v>4386134629.716548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08650817957140704</v>
+        <v>0.09368509253525065</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04165041746602045</v>
+        <v>0.04551947227405666</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>73</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2202147224.507964</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2902902522.875968</v>
+        <v>2560117121.79885</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1833409696853117</v>
+        <v>0.191131545696392</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0215869401557805</v>
+        <v>0.02543082246918077</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>50</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1451451300.577205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4417298077.621473</v>
+        <v>4266492730.711071</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1549749051410243</v>
+        <v>0.1167471633318071</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04859600764624315</v>
+        <v>0.04730440130847666</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2208649135.608021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4135428279.692566</v>
+        <v>3545023759.161312</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1416462810954772</v>
+        <v>0.1600678665783441</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02302545775161126</v>
+        <v>0.02322827883656138</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>46</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2067714120.68851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1398432053.300093</v>
+        <v>1725519184.562816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245138257359526</v>
+        <v>0.1538206460392003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05677473841225834</v>
+        <v>0.039193165468701</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>699216083.9265337</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3567831095.608655</v>
+        <v>3420288507.682327</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1139144681901383</v>
+        <v>0.1798475521019942</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01860020341371375</v>
+        <v>0.02163492276530463</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>56</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1783915599.851158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1910915189.497842</v>
+        <v>1311257790.023459</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1262810363394198</v>
+        <v>0.1504833782071201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02560232697800062</v>
+        <v>0.02797861025149467</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>955457588.352517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4085389711.325151</v>
+        <v>4853722081.233636</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0821817553588419</v>
+        <v>0.1070515436289225</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04249192692931777</v>
+        <v>0.03277865305131664</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2042694827.441791</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3743132328.926871</v>
+        <v>3469355391.956277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1625658569786304</v>
+        <v>0.2047464782188063</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02125368127664717</v>
+        <v>0.02410378480156905</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>57</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1871566312.736478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2326621171.420011</v>
+        <v>3334224528.096619</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1249154682652798</v>
+        <v>0.1379328414836144</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02250495915051067</v>
+        <v>0.02188178865388461</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>61</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1163310629.65104</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1803826694.819849</v>
+        <v>1418063520.381124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1311078889951072</v>
+        <v>0.11954797049387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03196960090565806</v>
+        <v>0.0437350146647847</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>901913375.9867783</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5251394062.405777</v>
+        <v>4840380782.238831</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07513354237867284</v>
+        <v>0.09395095672306802</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04469454614438246</v>
+        <v>0.03270829840397724</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2625697037.710239</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3993428290.210651</v>
+        <v>5270398919.317957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.158475057720413</v>
+        <v>0.1523203238359207</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03260020460005132</v>
+        <v>0.02293003004443236</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1996714180.468793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4490804250.074821</v>
+        <v>5238315164.152965</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1292739821026595</v>
+        <v>0.1685344737950156</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02858051705197842</v>
+        <v>0.03162829724089013</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>63</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2245402114.282467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3787578282.193268</v>
+        <v>5584776211.766651</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1365360835768601</v>
+        <v>0.1589664139130692</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04545743516102973</v>
+        <v>0.04806445439645026</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>51</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1893789103.251697</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3186680863.728866</v>
+        <v>3354688246.729446</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06725988559617528</v>
+        <v>0.07478531971518833</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0381753919314806</v>
+        <v>0.03550040665012958</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>57</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1593340434.302736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4126865488.576125</v>
+        <v>4862807271.898016</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1099203623984721</v>
+        <v>0.1290309169300025</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04457594469151475</v>
+        <v>0.03666615613468825</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2063432747.740888</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2268708789.588066</v>
+        <v>1951445739.378709</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1830864613630149</v>
+        <v>0.1794772014775248</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03630189813904029</v>
+        <v>0.04065473341742228</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1134354434.487774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3653200655.520461</v>
+        <v>2448007365.029943</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08627147523547675</v>
+        <v>0.07034074258479617</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04025367223296583</v>
+        <v>0.04435899007609152</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>50</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1826600347.191257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4077218864.742118</v>
+        <v>4716728603.455821</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1424437665455689</v>
+        <v>0.1520419108285136</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0310321507565007</v>
+        <v>0.02615647527368003</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>64</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2038609469.135629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1750122036.11554</v>
+        <v>1699632980.587381</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07610724542299394</v>
+        <v>0.0833500064057581</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05190531814102953</v>
+        <v>0.04348576337451652</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>875061004.6958872</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2729194145.205555</v>
+        <v>2725491483.075489</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09697467327387145</v>
+        <v>0.09704939948452292</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03405153406342238</v>
+        <v>0.05061707677365736</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1364597093.364201</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3492435845.848838</v>
+        <v>3121414815.852715</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1213885281466175</v>
+        <v>0.1446027154098394</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02463672481900167</v>
+        <v>0.0216685237482962</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1746217945.720514</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1545468229.383189</v>
+        <v>2202728429.072135</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1459918796937311</v>
+        <v>0.1651369494037162</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02439660929767231</v>
+        <v>0.03190366904843675</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>772734121.4173654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5096323070.786183</v>
+        <v>3610415719.755932</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1138729136466503</v>
+        <v>0.1011926517353282</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02230510843915713</v>
+        <v>0.02214330445318557</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>41</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2548161566.066883</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2173892457.71244</v>
+        <v>1881247242.3299</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1780564664100191</v>
+        <v>0.1655602378582141</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02035580134236184</v>
+        <v>0.02195266446034996</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1086946316.001827</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3758410553.590769</v>
+        <v>3939272744.304755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1192280785515655</v>
+        <v>0.0973225191959633</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05286973552673781</v>
+        <v>0.04486448289491587</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>61</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1879205259.804336</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1218887104.061734</v>
+        <v>1189525789.236498</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1540273322094827</v>
+        <v>0.1488964868744723</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02493975791053799</v>
+        <v>0.04065429021840869</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>609443537.0426899</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4562982319.099154</v>
+        <v>5546189286.516632</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07555694605863783</v>
+        <v>0.08165643420109511</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02453950760960685</v>
+        <v>0.02661203732224173</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2281491186.986912</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3768958446.796164</v>
+        <v>3499487703.79993</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1193836011549933</v>
+        <v>0.125003975332419</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02475272833033441</v>
+        <v>0.02268367806420043</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1884479178.011596</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4507296516.145111</v>
+        <v>3728509107.671867</v>
       </c>
       <c r="F82" t="n">
-        <v>0.169616476880882</v>
+        <v>0.2085328113449264</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02041439545762206</v>
+        <v>0.02351712524251453</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2253648269.500224</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2174315975.020598</v>
+        <v>1655181051.073968</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1473502199253417</v>
+        <v>0.1579338580336427</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04236873775746607</v>
+        <v>0.03537863461154984</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1087157994.512887</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2407311234.531979</v>
+        <v>1602915185.549423</v>
       </c>
       <c r="F84" t="n">
-        <v>0.119749702865201</v>
+        <v>0.1072678762489803</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04280045756129828</v>
+        <v>0.04227245715457522</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1203655562.597786</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2685631933.783603</v>
+        <v>3004867011.293896</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1729272586754206</v>
+        <v>0.1472000449155178</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03418894442101035</v>
+        <v>0.03863663341038219</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1342815992.30307</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2179703659.30528</v>
+        <v>2024736805.74836</v>
       </c>
       <c r="F86" t="n">
-        <v>0.147117327567675</v>
+        <v>0.1481951815260161</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0266125538159185</v>
+        <v>0.02391356089265156</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1089851882.252453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1322341791.60082</v>
+        <v>931316234.1461221</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1775751416274893</v>
+        <v>0.1286352123781052</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04283183951117637</v>
+        <v>0.0375354630225723</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>661170982.7161553</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3591320865.385127</v>
+        <v>2591657525.123425</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1129664066460643</v>
+        <v>0.1746210063538107</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03544990410952475</v>
+        <v>0.02654750494450072</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>69</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1795660521.542936</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2790309360.872082</v>
+        <v>3508081263.536639</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061323560261198</v>
+        <v>0.1510407595457283</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03949955267418684</v>
+        <v>0.03857973985465429</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1395154733.883899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2159420348.731994</v>
+        <v>1943382955.898721</v>
       </c>
       <c r="F90" t="n">
-        <v>0.111603690423498</v>
+        <v>0.0948092780489187</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04905555482253603</v>
+        <v>0.05183314457599275</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1079710273.747416</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1997265031.959073</v>
+        <v>1755034891.815563</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1230809855290793</v>
+        <v>0.1931512311412866</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06115720215709795</v>
+        <v>0.03962541725625003</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>998632488.5905565</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2107281138.471573</v>
+        <v>2596621950.021564</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08335590235705724</v>
+        <v>0.107362600368971</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03686250975244423</v>
+        <v>0.04512630313169338</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>43</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1053640523.526468</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4812724483.548517</v>
+        <v>3830263598.279125</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118994820353224</v>
+        <v>0.1124998611675215</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05467489938586729</v>
+        <v>0.04994724494059005</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2406362189.813633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1820749422.463784</v>
+        <v>2439797925.609682</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1134421240993329</v>
+        <v>0.1439359039408753</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02701184179394644</v>
+        <v>0.04035717988972668</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>910374686.1941212</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2844974177.705386</v>
+        <v>2756792367.677388</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0961262204386973</v>
+        <v>0.1174719419539953</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04557088111971779</v>
+        <v>0.03578513266837925</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1422487099.832218</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2319993701.508192</v>
+        <v>2338764544.68857</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09860736994037993</v>
+        <v>0.09311934367000035</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03733698518671404</v>
+        <v>0.03782582313412267</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1159996803.533503</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4477922120.115902</v>
+        <v>3319304845.447512</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1161326402476468</v>
+        <v>0.13744530703368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02884318069164983</v>
+        <v>0.01941872421234138</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2238961154.842217</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3937384564.026799</v>
+        <v>2591568910.005027</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1161079317805089</v>
+        <v>0.1203439541256638</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02275405487150546</v>
+        <v>0.03121541086127065</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>46</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1968692330.248718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2679780776.348991</v>
+        <v>2249568322.869456</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1348215711266188</v>
+        <v>0.1300816996890775</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02569365151112874</v>
+        <v>0.0238044547779024</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1339890350.938333</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4461999493.615108</v>
+        <v>3555519774.849087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1154426625489509</v>
+        <v>0.1252088106215856</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02275412508158616</v>
+        <v>0.02155842584710957</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2230999854.340617</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2226339123.353357</v>
+        <v>2362424302.511942</v>
       </c>
       <c r="F101" t="n">
-        <v>0.219067060177723</v>
+        <v>0.2170467690922716</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04001701388208619</v>
+        <v>0.05594731154480211</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>72</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1113169548.438733</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_176.xlsx
+++ b/output/fit_clients/fit_round_176.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2501815503.736682</v>
+        <v>1732211723.986669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137261555870289</v>
+        <v>0.06999952374544535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03238016592956307</v>
+        <v>0.03047895932797586</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2436328134.150953</v>
+        <v>2641416388.326911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1198939139802326</v>
+        <v>0.1798414439019166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03213461772312613</v>
+        <v>0.03062309651906262</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3663675569.299403</v>
+        <v>4141596001.155506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1467722958374477</v>
+        <v>0.1078593839174749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03736412842862636</v>
+        <v>0.03653531601889001</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2616276745.711978</v>
+        <v>3839106933.646632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1081277926590077</v>
+        <v>0.07898904011613132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03414502802002441</v>
+        <v>0.04271565179706004</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2167736437.894454</v>
+        <v>2090657719.031207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09890363465368657</v>
+        <v>0.1235627261471633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04492260934286247</v>
+        <v>0.04334504812732042</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2630433047.118147</v>
+        <v>2333843000.747827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09258028844869351</v>
+        <v>0.08478101878461503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03171719699585208</v>
+        <v>0.03878899386520911</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3878654585.49002</v>
+        <v>2794283300.20451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1639986651359756</v>
+        <v>0.2004662577094428</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02198033579943834</v>
+        <v>0.0214347490342091</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2307120134.756961</v>
+        <v>1723507749.469253</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1682527755018209</v>
+        <v>0.1788475293351868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03180827015967063</v>
+        <v>0.02678702740617171</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3953727348.928436</v>
+        <v>4480186420.356903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2112019778923469</v>
+        <v>0.205597565370926</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04267565616533021</v>
+        <v>0.036883500910784</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3033109814.324785</v>
+        <v>4085882611.237611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1178039663626191</v>
+        <v>0.1440060260175346</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03026500902701849</v>
+        <v>0.03650963000147155</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3274759949.286911</v>
+        <v>2980183073.650035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1763101159115361</v>
+        <v>0.1216480088218028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0417227715519156</v>
+        <v>0.04031341962436017</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4081302773.161171</v>
+        <v>4200468914.074265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06872924151044701</v>
+        <v>0.08595223855478377</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0218786384375215</v>
+        <v>0.02671920650786692</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2492759759.971309</v>
+        <v>2632704268.039247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1702102872318041</v>
+        <v>0.1791273863697611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0350332441564893</v>
+        <v>0.04038059114104599</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1138942263.518589</v>
+        <v>1115202235.214993</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06659203594389401</v>
+        <v>0.08327333887934422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04306671133065872</v>
+        <v>0.04761447206306318</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2532495688.683464</v>
+        <v>2694099377.863043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07300525288525615</v>
+        <v>0.08414753014000433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03469018067942841</v>
+        <v>0.04923533126283816</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3957745973.828788</v>
+        <v>3591632980.886765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687299276744953</v>
+        <v>0.1512737374515996</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04492113737883592</v>
+        <v>0.04557773659803013</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3163438761.945965</v>
+        <v>3464476587.593869</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1245522331172153</v>
+        <v>0.1178036825888562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02752514759368639</v>
+        <v>0.02478909027250075</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293641888.631554</v>
+        <v>1262906932.229224</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1725066715503439</v>
+        <v>0.1906977441728522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02375577968692046</v>
+        <v>0.01765916048850929</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2295360885.198133</v>
+        <v>2795148394.115696</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438888336010226</v>
+        <v>0.1289762189122304</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02963054695543483</v>
+        <v>0.02980837613923962</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2106273175.863847</v>
+        <v>1889818383.745744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09900230314213877</v>
+        <v>0.06199731264476564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03699688051089883</v>
+        <v>0.04098028518143564</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3520851732.227203</v>
+        <v>2786859157.613907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1018194030286223</v>
+        <v>0.1094436681904121</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04409230770333669</v>
+        <v>0.04930420916454237</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950920237.5589836</v>
+        <v>943099637.9139309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1587320077281514</v>
+        <v>0.1499250148126329</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04241299251432587</v>
+        <v>0.0517645264913215</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3964775826.326739</v>
+        <v>2713742165.062021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1145271253409303</v>
+        <v>0.114230975253977</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0313325683494251</v>
+        <v>0.02558955477939671</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1417312199.832301</v>
+        <v>1080594961.886815</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07854198986315661</v>
+        <v>0.09740455551197637</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01983084019556493</v>
+        <v>0.02413436107726187</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1074662876.550935</v>
+        <v>1129705113.1726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09493103524032122</v>
+        <v>0.07713464767742204</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03411709325873158</v>
+        <v>0.03014176188984469</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3144802569.012457</v>
+        <v>4643775121.257401</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1202230652650949</v>
+        <v>0.1545373125048175</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02241617973098704</v>
+        <v>0.02184621476362575</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3185244790.825581</v>
+        <v>3290023252.274039</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191829914168247</v>
+        <v>0.1388960942356314</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0483811187244991</v>
+        <v>0.03487932983184096</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5191289353.128622</v>
+        <v>5569883392.354911</v>
       </c>
       <c r="F29" t="n">
-        <v>0.150573654958316</v>
+        <v>0.09412679767231563</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03354522179129952</v>
+        <v>0.03848000838777414</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2250547235.274079</v>
+        <v>2336083080.522942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09122297252008674</v>
+        <v>0.09450124413414868</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02978367096914022</v>
+        <v>0.03044280956881776</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1115270909.335958</v>
+        <v>1245838701.241554</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09810790355051467</v>
+        <v>0.090107838594235</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03284619971112029</v>
+        <v>0.03390348896153349</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1253477524.631695</v>
+        <v>1879696184.212703</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07345751765776744</v>
+        <v>0.08045366795660926</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02571080181439555</v>
+        <v>0.02459766471086694</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1892803080.13669</v>
+        <v>2758407018.282419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1857382240724704</v>
+        <v>0.1738262130520811</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05704863993131908</v>
+        <v>0.04078286827037529</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1272687740.951877</v>
+        <v>1381282285.260157</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08384264393945255</v>
+        <v>0.09895829377625115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01938099808229725</v>
+        <v>0.02116777543242214</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>832363624.3533157</v>
+        <v>1224086729.538573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07350615564943631</v>
+        <v>0.1065715149018417</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0286622113940372</v>
+        <v>0.03716493183229749</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3025630854.278687</v>
+        <v>2928023328.370442</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1296745847837687</v>
+        <v>0.158734104238098</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02046043191871353</v>
+        <v>0.02105347395843457</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2208647041.903614</v>
+        <v>2190887993.551844</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08974637048668183</v>
+        <v>0.06926792170558532</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02563235751388128</v>
+        <v>0.02690672909831823</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1655652883.128839</v>
+        <v>1579331624.19271</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07955732576413968</v>
+        <v>0.09662290326554709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03961295946231094</v>
+        <v>0.02514350171614858</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1431493098.574249</v>
+        <v>1883077642.154264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1201288299024967</v>
+        <v>0.1931307112032763</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02261753074554786</v>
+        <v>0.0269789375762432</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1716920275.223354</v>
+        <v>1134317270.083665</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1252147681537277</v>
+        <v>0.1548684135211366</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0457893402758812</v>
+        <v>0.04291688368883441</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2213334127.265746</v>
+        <v>2038894945.390193</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623802105315551</v>
+        <v>0.1121873219373664</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04520744210639782</v>
+        <v>0.04200181599433098</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4141398904.081619</v>
+        <v>3455026472.102862</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1146013599121635</v>
+        <v>0.109298179736634</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04140384005912465</v>
+        <v>0.03012984062789729</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2587847790.864381</v>
+        <v>2712183768.295505</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543444113420437</v>
+        <v>0.1854235765190097</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01732007079674167</v>
+        <v>0.01699343486868291</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2078977708.845565</v>
+        <v>2075094082.809298</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09067197932645292</v>
+        <v>0.09980184988180398</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03333697835099152</v>
+        <v>0.02386917055277941</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1749053818.090981</v>
+        <v>2282604514.215274</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1857834851412655</v>
+        <v>0.1747082424266511</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04438574794017977</v>
+        <v>0.03700520142168565</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4389076885.216694</v>
+        <v>5079270844.836647</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1584687771895309</v>
+        <v>0.1713407068264534</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05939898334030721</v>
+        <v>0.0591105640066206</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3304328112.163656</v>
+        <v>3786256473.865227</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1541901152929782</v>
+        <v>0.1331424024958311</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05483023013861278</v>
+        <v>0.05513712126043741</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4129963458.540861</v>
+        <v>4697158425.407507</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07033199199123655</v>
+        <v>0.1095056228107681</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03842077797344566</v>
+        <v>0.0321314038092573</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1831107220.04786</v>
+        <v>1530934784.845871</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1536513547714734</v>
+        <v>0.150397259537358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03611093395241887</v>
+        <v>0.02697640198297857</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4172604469.69443</v>
+        <v>2928975414.332559</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1349341195322582</v>
+        <v>0.1523915456217644</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04373041835074003</v>
+        <v>0.04656218583112725</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1465025068.620234</v>
+        <v>984567378.7429807</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1728962046966705</v>
+        <v>0.138835185754722</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04953066049077055</v>
+        <v>0.0535575356937343</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4386134629.716548</v>
+        <v>4548388709.194605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09368509253525065</v>
+        <v>0.08522703847539845</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04551947227405666</v>
+        <v>0.04621798664073452</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2560117121.79885</v>
+        <v>2819099585.708941</v>
       </c>
       <c r="F53" t="n">
-        <v>0.191131545696392</v>
+        <v>0.1361674274692672</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02543082246918077</v>
+        <v>0.03412848353759829</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4266492730.711071</v>
+        <v>4708644067.307281</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1167471633318071</v>
+        <v>0.1699641033239782</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04730440130847666</v>
+        <v>0.0328144281001075</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3545023759.161312</v>
+        <v>3080438715.831541</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1600678665783441</v>
+        <v>0.2224373555929307</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02322827883656138</v>
+        <v>0.02375327916303001</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1725519184.562816</v>
+        <v>1503582597.28324</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1538206460392003</v>
+        <v>0.1291836732731176</v>
       </c>
       <c r="G56" t="n">
-        <v>0.039193165468701</v>
+        <v>0.03978500356725254</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3420288507.682327</v>
+        <v>3658288348.837934</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798475521019942</v>
+        <v>0.1707294999138838</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02163492276530463</v>
+        <v>0.02204864429117881</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1311257790.023459</v>
+        <v>1353001471.181678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1504833782071201</v>
+        <v>0.1881973511408353</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02797861025149467</v>
+        <v>0.02756431984501875</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4853722081.233636</v>
+        <v>5097568273.407862</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1070515436289225</v>
+        <v>0.1284454461587624</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03277865305131664</v>
+        <v>0.03602126466555807</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3469355391.956277</v>
+        <v>3370053423.604756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2047464782188063</v>
+        <v>0.1579716538776293</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02410378480156905</v>
+        <v>0.03124411497073681</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3334224528.096619</v>
+        <v>2303569598.779783</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1379328414836144</v>
+        <v>0.1203693389795004</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02188178865388461</v>
+        <v>0.02164350603438076</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1418063520.381124</v>
+        <v>1412885393.060891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.11954797049387</v>
+        <v>0.168069128622701</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0437350146647847</v>
+        <v>0.03761718344443234</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4840380782.238831</v>
+        <v>3639631815.892421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09395095672306802</v>
+        <v>0.09953222490432329</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03270829840397724</v>
+        <v>0.03151103441543941</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5270398919.317957</v>
+        <v>3668407278.916426</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1523203238359207</v>
+        <v>0.1326043020253736</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02293003004443236</v>
+        <v>0.03120355746789778</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5238315164.152965</v>
+        <v>4933288946.169709</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1685344737950156</v>
+        <v>0.162974997424574</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03162829724089013</v>
+        <v>0.02643564401915302</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5584776211.766651</v>
+        <v>4531377376.609073</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1589664139130692</v>
+        <v>0.13167313487056</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04806445439645026</v>
+        <v>0.04953810357420552</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3354688246.729446</v>
+        <v>3246645606.278217</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07478531971518833</v>
+        <v>0.08879270746228143</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03550040665012958</v>
+        <v>0.05140259273731972</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4862807271.898016</v>
+        <v>5114851321.867364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1290309169300025</v>
+        <v>0.1584482551015285</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03666615613468825</v>
+        <v>0.04813948512783548</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1951445739.378709</v>
+        <v>2371034671.262673</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1794772014775248</v>
+        <v>0.1650606161746355</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04065473341742228</v>
+        <v>0.05342980466346795</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2448007365.029943</v>
+        <v>3302321276.549623</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07034074258479617</v>
+        <v>0.0818481507900152</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04435899007609152</v>
+        <v>0.03941694074574808</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4716728603.455821</v>
+        <v>4428507797.119864</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1520419108285136</v>
+        <v>0.1446621944777515</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02615647527368003</v>
+        <v>0.02310519084091949</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1699632980.587381</v>
+        <v>2191098410.966643</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0833500064057581</v>
+        <v>0.07254995331279733</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04348576337451652</v>
+        <v>0.03463381661388421</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2725491483.075489</v>
+        <v>2321053097.573293</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09704939948452292</v>
+        <v>0.08035448697458358</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05061707677365736</v>
+        <v>0.03190748885776879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3121414815.852715</v>
+        <v>3814337450.398057</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1446027154098394</v>
+        <v>0.1646913605325832</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0216685237482962</v>
+        <v>0.02253190731134231</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2202728429.072135</v>
+        <v>1671527585.851968</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1651369494037162</v>
+        <v>0.1561142042573081</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03190366904843675</v>
+        <v>0.03600180699441108</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3610415719.755932</v>
+        <v>5252414524.370974</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1011926517353282</v>
+        <v>0.07869695388877607</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02214330445318557</v>
+        <v>0.03151834189949843</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1881247242.3299</v>
+        <v>2127937720.196562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1655602378582141</v>
+        <v>0.1840951625826792</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02195266446034996</v>
+        <v>0.02879437698869161</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3939272744.304755</v>
+        <v>2953428428.709806</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0973225191959633</v>
+        <v>0.1239779894516903</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04486448289491587</v>
+        <v>0.03871552813402495</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1189525789.236498</v>
+        <v>1632672780.997639</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1488964868744723</v>
+        <v>0.1182663918651588</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04065429021840869</v>
+        <v>0.03709552731851931</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5546189286.516632</v>
+        <v>5451911814.043473</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08165643420109511</v>
+        <v>0.07014214377160559</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02661203732224173</v>
+        <v>0.02500964700286637</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3499487703.79993</v>
+        <v>3511296823.3266</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125003975332419</v>
+        <v>0.09291154032109517</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02268367806420043</v>
+        <v>0.02052401605730684</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3728509107.671867</v>
+        <v>5311647280.966689</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2085328113449264</v>
+        <v>0.2027900770592201</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02351712524251453</v>
+        <v>0.01880892158876208</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1655181051.073968</v>
+        <v>1877522066.420999</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1579338580336427</v>
+        <v>0.1392852807343123</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03537863461154984</v>
+        <v>0.03885991333421259</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1602915185.549423</v>
+        <v>2014860677.438631</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1072678762489803</v>
+        <v>0.1078516693791558</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04227245715457522</v>
+        <v>0.04339966169052435</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3004867011.293896</v>
+        <v>3142355393.371118</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1472000449155178</v>
+        <v>0.1204483534641892</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03863663341038219</v>
+        <v>0.05362764411467597</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2024736805.74836</v>
+        <v>2565091571.533168</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1481951815260161</v>
+        <v>0.1116091000316862</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02391356089265156</v>
+        <v>0.0210471026657807</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>931316234.1461221</v>
+        <v>1281741459.816225</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1286352123781052</v>
+        <v>0.1743759770155378</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0375354630225723</v>
+        <v>0.04346148990172598</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2591657525.123425</v>
+        <v>2288013910.714356</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1746210063538107</v>
+        <v>0.1411270372516228</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02654750494450072</v>
+        <v>0.02432319037289399</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3508081263.536639</v>
+        <v>2450723286.733047</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1510407595457283</v>
+        <v>0.1521085435496776</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03857973985465429</v>
+        <v>0.03447930529128891</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1943382955.898721</v>
+        <v>1568665962.232317</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0948092780489187</v>
+        <v>0.1313388241033786</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05183314457599275</v>
+        <v>0.04414796213570393</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1755034891.815563</v>
+        <v>1715484553.675673</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1931512311412866</v>
+        <v>0.1273755912168263</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03962541725625003</v>
+        <v>0.04731405769401292</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2596621950.021564</v>
+        <v>2933936565.72664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.107362600368971</v>
+        <v>0.0816138401155985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04512630313169338</v>
+        <v>0.04137862536646233</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3830263598.279125</v>
+        <v>4825117247.459608</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1124998611675215</v>
+        <v>0.117804842962459</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04994724494059005</v>
+        <v>0.04179359345859157</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2439797925.609682</v>
+        <v>2497960373.2596</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1439359039408753</v>
+        <v>0.1387807479819498</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04035717988972668</v>
+        <v>0.02755348896730669</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2756792367.677388</v>
+        <v>3030491998.27535</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174719419539953</v>
+        <v>0.09975216842439437</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03578513266837925</v>
+        <v>0.04617872533130142</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2338764544.68857</v>
+        <v>1930538468.824689</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09311934367000035</v>
+        <v>0.1247090679619157</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03782582313412267</v>
+        <v>0.03649195185841567</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3319304845.447512</v>
+        <v>4479804767.211133</v>
       </c>
       <c r="F97" t="n">
-        <v>0.13744530703368</v>
+        <v>0.1306022537269721</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01941872421234138</v>
+        <v>0.02362359091344497</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2591568910.005027</v>
+        <v>3325299464.796713</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1203439541256638</v>
+        <v>0.1153789090580101</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03121541086127065</v>
+        <v>0.02172122453756627</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2249568322.869456</v>
+        <v>2621232645.803288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1300816996890775</v>
+        <v>0.119345416959916</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0238044547779024</v>
+        <v>0.03533637189620422</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3555519774.849087</v>
+        <v>4728745247.157428</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1252088106215856</v>
+        <v>0.1390648861255687</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02155842584710957</v>
+        <v>0.02146676991471663</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2362424302.511942</v>
+        <v>3091059877.599832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2170467690922716</v>
+        <v>0.2065954570808797</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05594731154480211</v>
+        <v>0.04290561652303902</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_176.xlsx
+++ b/output/fit_clients/fit_round_176.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1732211723.986669</v>
+        <v>2076620119.395317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06999952374544535</v>
+        <v>0.09728077734889748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03047895932797586</v>
+        <v>0.04146891975030922</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2641416388.326911</v>
+        <v>2411523996.034418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1798414439019166</v>
+        <v>0.160823133310094</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03062309651906262</v>
+        <v>0.03585341052253568</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4141596001.155506</v>
+        <v>3220567217.520123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078593839174749</v>
+        <v>0.1085732197341154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03653531601889001</v>
+        <v>0.02801599577983481</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>174</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3839106933.646632</v>
+        <v>3606043457.808012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07898904011613132</v>
+        <v>0.1106425596290075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04271565179706004</v>
+        <v>0.03753656743465557</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>175</v>
+      </c>
+      <c r="K5" t="n">
+        <v>105.4022474723753</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2090657719.031207</v>
+        <v>2409378730.031326</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1235627261471633</v>
+        <v>0.1022235144149674</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04334504812732042</v>
+        <v>0.05003499145716293</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2333843000.747827</v>
+        <v>2075864575.317613</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08478101878461503</v>
+        <v>0.08721008058821193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03878899386520911</v>
+        <v>0.04406364578239665</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2794283300.20451</v>
+        <v>2784710412.594204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2004662577094428</v>
+        <v>0.1992893770727333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0214347490342091</v>
+        <v>0.03167513561003754</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1723507749.469253</v>
+        <v>1751580429.132085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1788475293351868</v>
+        <v>0.1747777458984458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02678702740617171</v>
+        <v>0.02774739432407443</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4480186420.356903</v>
+        <v>3998948177.099812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.205597565370926</v>
+        <v>0.2120984600180121</v>
       </c>
       <c r="G10" t="n">
-        <v>0.036883500910784</v>
+        <v>0.04390246139626663</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>162</v>
+      </c>
+      <c r="J10" t="n">
+        <v>175</v>
+      </c>
+      <c r="K10" t="n">
+        <v>124.5537190494909</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4085882611.237611</v>
+        <v>4041806807.343966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1440060260175346</v>
+        <v>0.1789209700236287</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03650963000147155</v>
+        <v>0.04748803309007271</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>176</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2980183073.650035</v>
+        <v>2960781887.106131</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1216480088218028</v>
+        <v>0.1429626761551049</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04031341962436017</v>
+        <v>0.04283036158088557</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4200468914.074265</v>
+        <v>4614866332.309876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08595223855478377</v>
+        <v>0.08134868877033712</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02671920650786692</v>
+        <v>0.03100010026387255</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>87</v>
+      </c>
+      <c r="J13" t="n">
+        <v>175</v>
+      </c>
+      <c r="K13" t="n">
+        <v>126.590459917044</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2632704268.039247</v>
+        <v>3021938610.367376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1791273863697611</v>
+        <v>0.142733585950838</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04038059114104599</v>
+        <v>0.0406587325489376</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1115202235.214993</v>
+        <v>1763438398.328649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08327333887934422</v>
+        <v>0.1004075873910483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04761447206306318</v>
+        <v>0.04024992279562259</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2694099377.863043</v>
+        <v>2015851142.801033</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08414753014000433</v>
+        <v>0.09657928518225341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04923533126283816</v>
+        <v>0.04705237862808797</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3591632980.886765</v>
+        <v>4562427971.539707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1512737374515996</v>
+        <v>0.1454554733394403</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04557773659803013</v>
+        <v>0.03737959971439998</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>84</v>
+      </c>
+      <c r="J17" t="n">
+        <v>176</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3464476587.593869</v>
+        <v>3021959769.478373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1178036825888562</v>
+        <v>0.1769551114068049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02478909027250075</v>
+        <v>0.03055970389852353</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262906932.229224</v>
+        <v>1236917150.611308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1906977441728522</v>
+        <v>0.1195359352296012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01765916048850929</v>
+        <v>0.0272772792244493</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2795148394.115696</v>
+        <v>1862502984.713642</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1289762189122304</v>
+        <v>0.1008852085107719</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02980837613923962</v>
+        <v>0.0263084850628562</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1889818383.745744</v>
+        <v>1732094843.455158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06199731264476564</v>
+        <v>0.06633268368319933</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04098028518143564</v>
+        <v>0.04430547731508203</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2786859157.613907</v>
+        <v>3098582063.991269</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094436681904121</v>
+        <v>0.09585855981804017</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04930420916454237</v>
+        <v>0.03450836616471274</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>943099637.9139309</v>
+        <v>1433592203.246527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1499250148126329</v>
+        <v>0.1307811458737741</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0517645264913215</v>
+        <v>0.0514758946088468</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2713742165.062021</v>
+        <v>4046019401.188619</v>
       </c>
       <c r="F24" t="n">
-        <v>0.114230975253977</v>
+        <v>0.1105755722576306</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02558955477939671</v>
+        <v>0.03200958510790115</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>53</v>
+      </c>
+      <c r="J24" t="n">
+        <v>175</v>
+      </c>
+      <c r="K24" t="n">
+        <v>105.5622242710603</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1080594961.886815</v>
+        <v>1336800703.379081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09740455551197637</v>
+        <v>0.1055638781154102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02413436107726187</v>
+        <v>0.02798852537918097</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1129705113.1726</v>
+        <v>918386033.7248365</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07713464767742204</v>
+        <v>0.11675377925178</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03014176188984469</v>
+        <v>0.03519916574861055</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4643775121.257401</v>
+        <v>4642397427.605422</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1545373125048175</v>
+        <v>0.1546736903583472</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02184621476362575</v>
+        <v>0.01901521807185863</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>70</v>
+      </c>
+      <c r="J27" t="n">
+        <v>176</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3290023252.274039</v>
+        <v>2938625626.470177</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388960942356314</v>
+        <v>0.1468863299424212</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03487932983184096</v>
+        <v>0.03485963370782225</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>175</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.30060712948559</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5569883392.354911</v>
+        <v>5297343641.319237</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09412679767231563</v>
+        <v>0.09764169110549223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03848000838777414</v>
+        <v>0.04469651498228128</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>165</v>
+      </c>
+      <c r="J29" t="n">
+        <v>176</v>
+      </c>
+      <c r="K29" t="n">
+        <v>149.1927681991619</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2336083080.522942</v>
+        <v>2255101665.536076</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09450124413414868</v>
+        <v>0.110568340345771</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03044280956881776</v>
+        <v>0.03936036414175555</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1245838701.241554</v>
+        <v>1390794322.338201</v>
       </c>
       <c r="F31" t="n">
-        <v>0.090107838594235</v>
+        <v>0.1015744551889826</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03390348896153349</v>
+        <v>0.04486033925780716</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1879696184.212703</v>
+        <v>1714094342.131462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08045366795660926</v>
+        <v>0.09410766754794742</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02459766471086694</v>
+        <v>0.03285405768912918</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2758407018.282419</v>
+        <v>1980574398.782957</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1738262130520811</v>
+        <v>0.1890450578389566</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04078286827037529</v>
+        <v>0.04376156170961303</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1381282285.260157</v>
+        <v>1396851360.187463</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09895829377625115</v>
+        <v>0.08855228686406233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116777543242214</v>
+        <v>0.02123150147696093</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224086729.538573</v>
+        <v>1153745768.251056</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1065715149018417</v>
+        <v>0.07881809341679474</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03716493183229749</v>
+        <v>0.03695094871402525</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2928023328.370442</v>
+        <v>2755196446.559176</v>
       </c>
       <c r="F36" t="n">
-        <v>0.158734104238098</v>
+        <v>0.1754011673464012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02105347395843457</v>
+        <v>0.01823444882234395</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2190887993.551844</v>
+        <v>2129050183.640471</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06926792170558532</v>
+        <v>0.08647184327927945</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02690672909831823</v>
+        <v>0.0353895880545789</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1579331624.19271</v>
+        <v>2185747575.641957</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09662290326554709</v>
+        <v>0.108455450319607</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02514350171614858</v>
+        <v>0.02748026366889945</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1883077642.154264</v>
+        <v>1354573312.058362</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1931307112032763</v>
+        <v>0.1225853256755893</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0269789375762432</v>
+        <v>0.02115594248692142</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1134317270.083665</v>
+        <v>1459954046.983006</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1548684135211366</v>
+        <v>0.1360228856744899</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04291688368883441</v>
+        <v>0.03832536814792833</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2038894945.390193</v>
+        <v>2429283457.211658</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1121873219373664</v>
+        <v>0.1554814981372347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04200181599433098</v>
+        <v>0.03528370214710562</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3455026472.102862</v>
+        <v>3678802895.09201</v>
       </c>
       <c r="F42" t="n">
-        <v>0.109298179736634</v>
+        <v>0.09980331551896394</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03012984062789729</v>
+        <v>0.04508377135309706</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>175</v>
+      </c>
+      <c r="K42" t="n">
+        <v>98.18574451832365</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2712183768.295505</v>
+        <v>1873225097.826064</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1854235765190097</v>
+        <v>0.149991098155906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01699343486868291</v>
+        <v>0.01830784241016277</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2075094082.809298</v>
+        <v>2107246864.243311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09980184988180398</v>
+        <v>0.06912010603158218</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02386917055277941</v>
+        <v>0.03076701686211929</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2282604514.215274</v>
+        <v>2052982381.621439</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1747082424266511</v>
+        <v>0.1258364768440379</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03700520142168565</v>
+        <v>0.05414493484169887</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5079270844.836647</v>
+        <v>4548853982.682245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1713407068264534</v>
+        <v>0.1705728144317094</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0591105640066206</v>
+        <v>0.06030828648727393</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>99</v>
+      </c>
+      <c r="J46" t="n">
+        <v>176</v>
+      </c>
+      <c r="K46" t="n">
+        <v>130.6295804849708</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3786256473.865227</v>
+        <v>3644178133.136201</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1331424024958311</v>
+        <v>0.1417927639601685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05513712126043741</v>
+        <v>0.04178968394778994</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>78</v>
+      </c>
+      <c r="J47" t="n">
+        <v>176</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4697158425.407507</v>
+        <v>4449998050.345448</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1095056228107681</v>
+        <v>0.08520738371938089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0321314038092573</v>
+        <v>0.02651421841076373</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>80</v>
+      </c>
+      <c r="J48" t="n">
+        <v>176</v>
+      </c>
+      <c r="K48" t="n">
+        <v>132.6768494556285</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1530934784.845871</v>
+        <v>1263165957.058849</v>
       </c>
       <c r="F49" t="n">
-        <v>0.150397259537358</v>
+        <v>0.1319022888951404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02697640198297857</v>
+        <v>0.03935462718726023</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2928975414.332559</v>
+        <v>3321881987.741579</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1523915456217644</v>
+        <v>0.1423634984622415</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04656218583112725</v>
+        <v>0.05354400833107502</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="n">
+        <v>78.08411509071553</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>984567378.7429807</v>
+        <v>1495691208.862064</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138835185754722</v>
+        <v>0.1719874446202983</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0535575356937343</v>
+        <v>0.04475080395990665</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2271,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4548388709.194605</v>
+        <v>5105278283.33435</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08522703847539845</v>
+        <v>0.09486871615977642</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04621798664073452</v>
+        <v>0.04046984414400553</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>124</v>
+      </c>
+      <c r="J52" t="n">
+        <v>176</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2819099585.708941</v>
+        <v>2886293017.627829</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1361674274692672</v>
+        <v>0.1946521848931942</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03412848353759829</v>
+        <v>0.02372574676767219</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4708644067.307281</v>
+        <v>4473021178.669602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1699641033239782</v>
+        <v>0.1288953738263139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0328144281001075</v>
+        <v>0.04856610979850692</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88</v>
+      </c>
+      <c r="J54" t="n">
+        <v>176</v>
+      </c>
+      <c r="K54" t="n">
+        <v>132.0152324722807</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3080438715.831541</v>
+        <v>4274972193.631668</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2224373555929307</v>
+        <v>0.2131291133376926</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02375327916303001</v>
+        <v>0.0236350109776306</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>79</v>
+      </c>
+      <c r="J55" t="n">
+        <v>176</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1503582597.28324</v>
+        <v>1202350181.499119</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1291836732731176</v>
+        <v>0.1268626381115017</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03978500356725254</v>
+        <v>0.03738458651991931</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3658288348.837934</v>
+        <v>3279838129.082013</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1707294999138838</v>
+        <v>0.1287945551968048</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02204864429117881</v>
+        <v>0.02523603629703397</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>71</v>
+      </c>
+      <c r="J57" t="n">
+        <v>174</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353001471.181678</v>
+        <v>1723905813.468239</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1881973511408353</v>
+        <v>0.1309339335049036</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02756431984501875</v>
+        <v>0.0322890470952725</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5097568273.407862</v>
+        <v>4756480282.779258</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284454461587624</v>
+        <v>0.08671389721998353</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03602126466555807</v>
+        <v>0.03418084905109334</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>84</v>
+      </c>
+      <c r="J59" t="n">
+        <v>176</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3370053423.604756</v>
+        <v>2944969277.207101</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1579716538776293</v>
+        <v>0.1483653579838175</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03124411497073681</v>
+        <v>0.02926095939990986</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2303569598.779783</v>
+        <v>3306892730.711756</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1203693389795004</v>
+        <v>0.1521324170851243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02164350603438076</v>
+        <v>0.02052883785836828</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1412885393.060891</v>
+        <v>1822709877.574684</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168069128622701</v>
+        <v>0.143964863937748</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03761718344443234</v>
+        <v>0.03287948979025672</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3639631815.892421</v>
+        <v>5085736625.640326</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09953222490432329</v>
+        <v>0.08031468803082603</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03151103441543941</v>
+        <v>0.03453838111611596</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>86</v>
+      </c>
+      <c r="J63" t="n">
+        <v>176</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3668407278.916426</v>
+        <v>4010672258.638253</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1326043020253736</v>
+        <v>0.1631287176381983</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03120355746789778</v>
+        <v>0.02260850475432703</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>87</v>
+      </c>
+      <c r="J64" t="n">
+        <v>175</v>
+      </c>
+      <c r="K64" t="n">
+        <v>108.8286330633144</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4933288946.169709</v>
+        <v>4346273792.084303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.162974997424574</v>
+        <v>0.1053617544040188</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02643564401915302</v>
+        <v>0.0248743683312148</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>143</v>
+      </c>
+      <c r="J65" t="n">
+        <v>176</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4531377376.609073</v>
+        <v>5642268420.960494</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13167313487056</v>
+        <v>0.1071090572705182</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04953810357420552</v>
+        <v>0.0382498133849235</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>86</v>
+      </c>
+      <c r="J66" t="n">
+        <v>176</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3246645606.278217</v>
+        <v>2181095747.24452</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08879270746228143</v>
+        <v>0.08995342189292695</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05140259273731972</v>
+        <v>0.0350251632989317</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5114851321.867364</v>
+        <v>5469290952.331866</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1584482551015285</v>
+        <v>0.1366536106116552</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04813948512783548</v>
+        <v>0.03498527335873592</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>88</v>
+      </c>
+      <c r="J68" t="n">
+        <v>176</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2371034671.262673</v>
+        <v>2299196094.577253</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1650606161746355</v>
+        <v>0.1393514372461594</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05342980466346795</v>
+        <v>0.04826480696126615</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3302321276.549623</v>
+        <v>3251284468.71128</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0818481507900152</v>
+        <v>0.07964866765392226</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03941694074574808</v>
+        <v>0.04916432713231744</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4428507797.119864</v>
+        <v>3446732491.747581</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1446621944777515</v>
+        <v>0.1596926828076576</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02310519084091949</v>
+        <v>0.03267962567320445</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>139</v>
+      </c>
+      <c r="J71" t="n">
+        <v>175</v>
+      </c>
+      <c r="K71" t="n">
+        <v>85.52563660464298</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191098410.966643</v>
+        <v>2242518155.53673</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07254995331279733</v>
+        <v>0.07932627222937906</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03463381661388421</v>
+        <v>0.03604437410849633</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2321053097.573293</v>
+        <v>3346491674.322819</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08035448697458358</v>
+        <v>0.09436403260164078</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03190748885776879</v>
+        <v>0.03319776442880353</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3814337450.398057</v>
+        <v>3803375740.163987</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1646913605325832</v>
+        <v>0.1180361910617668</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02253190731134231</v>
+        <v>0.03134534893960329</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>52</v>
+      </c>
+      <c r="J74" t="n">
+        <v>175</v>
+      </c>
+      <c r="K74" t="n">
+        <v>105.7136962035815</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1671527585.851968</v>
+        <v>1767842626.786487</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1561142042573081</v>
+        <v>0.1172872617177921</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03600180699441108</v>
+        <v>0.03156989816396665</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5252414524.370974</v>
+        <v>4847544634.587584</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07869695388877607</v>
+        <v>0.1017743052737255</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03151834189949843</v>
+        <v>0.03400063449626459</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>80</v>
+      </c>
+      <c r="J76" t="n">
+        <v>175</v>
+      </c>
+      <c r="K76" t="n">
+        <v>108.8761588598478</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2127937720.196562</v>
+        <v>2265724297.07888</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1840951625826792</v>
+        <v>0.1681144810405535</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02879437698869161</v>
+        <v>0.02414121475939379</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2953428428.709806</v>
+        <v>3968297777.064139</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1239779894516903</v>
+        <v>0.08587015853728011</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03871552813402495</v>
+        <v>0.03966661433914937</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>89</v>
+      </c>
+      <c r="J78" t="n">
+        <v>176</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1632672780.997639</v>
+        <v>1237104419.998931</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1182663918651588</v>
+        <v>0.1614568608379995</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03709552731851931</v>
+        <v>0.02985769141767789</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5451911814.043473</v>
+        <v>4421345805.855916</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07014214377160559</v>
+        <v>0.08300501165476154</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02500964700286637</v>
+        <v>0.02665951251544474</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>86</v>
+      </c>
+      <c r="J80" t="n">
+        <v>175</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.65524323924961</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3511296823.3266</v>
+        <v>5179690103.575813</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09291154032109517</v>
+        <v>0.1197085810950174</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02052401605730684</v>
+        <v>0.03015130941327569</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>81</v>
+      </c>
+      <c r="J81" t="n">
+        <v>175</v>
+      </c>
+      <c r="K81" t="n">
+        <v>112.856537992928</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5311647280.966689</v>
+        <v>4528072337.396132</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2027900770592201</v>
+        <v>0.1703220578015736</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01880892158876208</v>
+        <v>0.01891788246762855</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>131</v>
+      </c>
+      <c r="J82" t="n">
+        <v>176</v>
+      </c>
+      <c r="K82" t="n">
+        <v>136.6517953292527</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1877522066.420999</v>
+        <v>2127652282.932795</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1392852807343123</v>
+        <v>0.1038112185498241</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03885991333421259</v>
+        <v>0.03153393216395493</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2014860677.438631</v>
+        <v>2575048430.338186</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1078516693791558</v>
+        <v>0.08895666443933439</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04339966169052435</v>
+        <v>0.03237815257646824</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3142355393.371118</v>
+        <v>3398247160.035979</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204483534641892</v>
+        <v>0.1822922522056674</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05362764411467597</v>
+        <v>0.04821203572943866</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2565091571.533168</v>
+        <v>2739864714.049416</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1116091000316862</v>
+        <v>0.1457664796133928</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0210471026657807</v>
+        <v>0.02390613510125145</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1281741459.816225</v>
+        <v>1184310626.957374</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1743759770155378</v>
+        <v>0.1868126372951831</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04346148990172598</v>
+        <v>0.03768439967949868</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2288013910.714356</v>
+        <v>3499584110.261528</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1411270372516228</v>
+        <v>0.1521206814423632</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02432319037289399</v>
+        <v>0.0379103649868834</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>176</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2450723286.733047</v>
+        <v>2624240280.471761</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1521085435496776</v>
+        <v>0.1222869821458287</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03447930529128891</v>
+        <v>0.02918939887118141</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1568665962.232317</v>
+        <v>2012658034.31752</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313388241033786</v>
+        <v>0.1290693712250451</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04414796213570393</v>
+        <v>0.04504419538223092</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1715484553.675673</v>
+        <v>1756072935.165204</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1273755912168263</v>
+        <v>0.1472076574928534</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04731405769401292</v>
+        <v>0.04863167954147312</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2933936565.72664</v>
+        <v>2061615522.753778</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0816138401155985</v>
+        <v>0.08903102530876927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04137862536646233</v>
+        <v>0.03682478683792303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4825117247.459608</v>
+        <v>4736417308.24144</v>
       </c>
       <c r="F93" t="n">
-        <v>0.117804842962459</v>
+        <v>0.09370286933856099</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04179359345859157</v>
+        <v>0.04517583117026139</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>79</v>
+      </c>
+      <c r="J93" t="n">
+        <v>175</v>
+      </c>
+      <c r="K93" t="n">
+        <v>122.2228694462875</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2497960373.2596</v>
+        <v>2310757320.318886</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1387807479819498</v>
+        <v>0.1147596857776746</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02755348896730669</v>
+        <v>0.04302244827867265</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3030491998.27535</v>
+        <v>3017558831.518812</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09975216842439437</v>
+        <v>0.08846569829466125</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04617872533130142</v>
+        <v>0.03457913003585686</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1930538468.824689</v>
+        <v>1791078074.191341</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1247090679619157</v>
+        <v>0.1181406846752654</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03649195185841567</v>
+        <v>0.03406286350866952</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4479804767.211133</v>
+        <v>4252116904.40692</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306022537269721</v>
+        <v>0.1300188659387571</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02362359091344497</v>
+        <v>0.0183827353703649</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>85</v>
+      </c>
+      <c r="J97" t="n">
+        <v>175</v>
+      </c>
+      <c r="K97" t="n">
+        <v>125.8055669592178</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3325299464.796713</v>
+        <v>3421163407.680048</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1153789090580101</v>
+        <v>0.09394517389200155</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02172122453756627</v>
+        <v>0.02312586713648283</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>42</v>
+      </c>
+      <c r="J98" t="n">
+        <v>176</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2621232645.803288</v>
+        <v>2573380345.988111</v>
       </c>
       <c r="F99" t="n">
-        <v>0.119345416959916</v>
+        <v>0.09652594379093088</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03533637189620422</v>
+        <v>0.03293092443193901</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4728745247.157428</v>
+        <v>3249745190.987051</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390648861255687</v>
+        <v>0.1516528886577257</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02146676991471663</v>
+        <v>0.01797304011462614</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>73</v>
+      </c>
+      <c r="J100" t="n">
+        <v>174</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3091059877.599832</v>
+        <v>3489786957.724005</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2065954570808797</v>
+        <v>0.138603215529292</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04290561652303902</v>
+        <v>0.04765186209547382</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>176</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
